--- a/AAII_Financials/Yearly/MCTC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MCTC_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>MCTC</t>
   </si>
@@ -830,8 +830,8 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1154,8 +1154,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1253,8 +1253,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1286,8 +1286,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1484,8 +1484,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -1550,8 +1550,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -1753,23 +1753,23 @@
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1852,23 +1852,23 @@
       <c r="D47" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1885,23 +1885,23 @@
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2017,23 +2017,23 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2176,8 +2176,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2242,8 +2242,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2440,8 +2440,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -2620,8 +2620,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-1100</v>
       </c>
       <c r="E72" s="3">
         <v>-700</v>
@@ -2752,8 +2752,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>100</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -2856,8 +2856,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -2907,23 +2907,23 @@
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3153,23 +3153,23 @@
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3252,23 +3252,23 @@
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3495,8 +3495,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
